--- a/Lab8/data/Data.xlsx
+++ b/Lab8/data/Data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="part1" sheetId="1" r:id="rId1"/>
-    <sheet name="part2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Excel2LaTeX" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="part2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,25 +31,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Anode Voltage [V] +/- 0.1 [V]</t>
   </si>
   <si>
     <t>Filament Current [A] +/- 0.001[A]</t>
   </si>
+  <si>
+    <t>RangeAddress</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>CellWidth</t>
+  </si>
+  <si>
+    <t>Indent</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>Voltage and Current for D = 10.0 +/- 0.2 cm (CCW Beam)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,14 +106,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,15 +467,119 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>150.30000000000001</v>
+      </c>
+      <c r="B2">
+        <v>1.4079999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>169.7</v>
+      </c>
+      <c r="B3">
+        <v>1.472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>189.7</v>
+      </c>
+      <c r="B4">
+        <v>1.5509999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>209.8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.6830000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>230.2</v>
+      </c>
+      <c r="B6">
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>250.3</v>
+      </c>
+      <c r="B7">
+        <v>1.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,50 +598,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>150.30000000000001</v>
+        <v>150</v>
       </c>
       <c r="B2">
-        <v>1.4079999999999999</v>
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>169.7</v>
+        <v>169.9</v>
       </c>
       <c r="B3">
-        <v>1.472</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>189.7</v>
+        <v>190</v>
       </c>
       <c r="B4">
-        <v>1.5509999999999999</v>
+        <v>1.0920000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>209.8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.6830000000000001</v>
+        <v>210.5</v>
+      </c>
+      <c r="B5">
+        <v>1.1459999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>230.2</v>
+        <v>230.5</v>
       </c>
       <c r="B6">
-        <v>1.645</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>250.3</v>
+        <v>249.6</v>
       </c>
       <c r="B7">
-        <v>1.72</v>
+        <v>1.2789999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -502,12 +649,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -526,81 +673,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>150</v>
-      </c>
-      <c r="B2">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>169.9</v>
-      </c>
-      <c r="B3">
-        <v>1.018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>190</v>
-      </c>
-      <c r="B4">
-        <v>1.0920000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>210.5</v>
-      </c>
-      <c r="B5">
-        <v>1.1459999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>230.5</v>
-      </c>
-      <c r="B6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>249.6</v>
-      </c>
-      <c r="B7">
-        <v>1.2789999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
         <v>150.1</v>
       </c>
       <c r="B2">
